--- a/Python/Arpan Maths Homework.xlsx
+++ b/Python/Arpan Maths Homework.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpan\Datacamp-Projects\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7DA7B6-8734-4CA8-AB9C-993779AC51A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additions" sheetId="1" r:id="rId1"/>
     <sheet name="Subtractions" sheetId="2" r:id="rId2"/>
     <sheet name="Multiplication" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +85,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -117,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +171,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,6 +223,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,14 +416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>89</v>
       </c>
@@ -379,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>47</v>
       </c>
@@ -393,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>95</v>
       </c>
@@ -407,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80</v>
       </c>
@@ -421,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -435,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>46</v>
       </c>
@@ -449,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>81</v>
       </c>
@@ -463,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>29</v>
       </c>
@@ -477,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>66</v>
       </c>
@@ -491,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>72</v>
       </c>
@@ -505,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>35</v>
       </c>
@@ -519,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>62</v>
       </c>
@@ -533,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>32</v>
       </c>
@@ -547,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>68</v>
       </c>
@@ -561,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -575,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>96</v>
       </c>
@@ -589,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -603,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>95</v>
       </c>
@@ -617,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>73</v>
       </c>
@@ -631,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22</v>
       </c>
@@ -645,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
@@ -659,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>40</v>
       </c>
@@ -673,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>38</v>
       </c>
@@ -687,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>49</v>
       </c>
@@ -701,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>41</v>
       </c>
@@ -715,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -729,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>71</v>
       </c>
@@ -743,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -757,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>46</v>
       </c>
@@ -771,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -785,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -799,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -813,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -827,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>58</v>
       </c>
@@ -841,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50</v>
       </c>
@@ -855,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>78</v>
       </c>
@@ -869,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -883,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>55</v>
       </c>
@@ -897,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -911,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>78</v>
       </c>
@@ -925,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>46</v>
       </c>
@@ -939,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -953,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -967,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>78</v>
       </c>
@@ -981,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -995,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>54</v>
       </c>
@@ -1009,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>95</v>
       </c>
@@ -1023,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1037,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>90</v>
       </c>
@@ -1051,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1065,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11</v>
       </c>
@@ -1079,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>61</v>
       </c>
@@ -1093,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>64</v>
       </c>
@@ -1107,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>61</v>
       </c>
@@ -1121,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>67</v>
       </c>
@@ -1135,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>83</v>
       </c>
@@ -1149,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
@@ -1163,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>88</v>
       </c>
@@ -1177,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28</v>
       </c>
@@ -1191,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>73</v>
       </c>
@@ -1205,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>87</v>
       </c>
@@ -1219,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>78</v>
       </c>
@@ -1233,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>72</v>
       </c>
@@ -1247,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1261,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>42</v>
       </c>
@@ -1275,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>97</v>
       </c>
@@ -1289,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1303,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>46</v>
       </c>
@@ -1317,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>93</v>
       </c>
@@ -1331,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1345,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
@@ -1359,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -1373,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>82</v>
       </c>
@@ -1387,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>35</v>
       </c>
@@ -1401,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>51</v>
       </c>
@@ -1415,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1429,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>39</v>
       </c>
@@ -1443,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>81</v>
       </c>
@@ -1457,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>57</v>
       </c>
@@ -1471,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>93</v>
       </c>
@@ -1485,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74</v>
       </c>
@@ -1499,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>49</v>
       </c>
@@ -1513,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>66</v>
       </c>
@@ -1527,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11</v>
       </c>
@@ -1541,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>45</v>
       </c>
@@ -1555,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>19</v>
       </c>
@@ -1569,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>25</v>
       </c>
@@ -1583,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>33</v>
       </c>
@@ -1597,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>31</v>
       </c>
@@ -1611,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5</v>
       </c>
@@ -1625,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60</v>
       </c>
@@ -1639,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>85</v>
       </c>
@@ -1653,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>80</v>
       </c>
@@ -1667,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>34</v>
       </c>
@@ -1681,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>64</v>
       </c>
@@ -1695,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>100</v>
       </c>
@@ -1709,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>46</v>
       </c>
@@ -1723,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>69</v>
       </c>
@@ -1737,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>83</v>
       </c>
@@ -1751,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -1771,14 +1829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>9</v>
       </c>
@@ -1792,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>68</v>
       </c>
@@ -1806,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>88</v>
       </c>
@@ -1820,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1834,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99</v>
       </c>
@@ -1848,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67</v>
       </c>
@@ -1862,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1876,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1890,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>61</v>
       </c>
@@ -1904,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1918,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1932,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
@@ -1946,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1960,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>84</v>
       </c>
@@ -1974,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1988,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2002,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48</v>
       </c>
@@ -2016,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>62</v>
       </c>
@@ -2030,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>72</v>
       </c>
@@ -2044,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2058,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2072,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>99</v>
       </c>
@@ -2086,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -2100,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -2114,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>48</v>
       </c>
@@ -2128,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -2142,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>65</v>
       </c>
@@ -2156,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
@@ -2170,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>75</v>
       </c>
@@ -2184,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>73</v>
       </c>
@@ -2198,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>54</v>
       </c>
@@ -2212,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>51</v>
       </c>
@@ -2226,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>92</v>
       </c>
@@ -2240,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>54</v>
       </c>
@@ -2254,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2268,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>77</v>
       </c>
@@ -2282,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>71</v>
       </c>
@@ -2296,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>85</v>
       </c>
@@ -2310,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>61</v>
       </c>
@@ -2324,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>49</v>
       </c>
@@ -2338,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>44</v>
       </c>
@@ -2352,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -2366,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -2380,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>95</v>
       </c>
@@ -2394,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2408,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>96</v>
       </c>
@@ -2422,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>77</v>
       </c>
@@ -2436,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>59</v>
       </c>
@@ -2450,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>43</v>
       </c>
@@ -2464,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2478,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>99</v>
       </c>
@@ -2492,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>54</v>
       </c>
@@ -2506,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>63</v>
       </c>
@@ -2520,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>69</v>
       </c>
@@ -2534,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>24</v>
       </c>
@@ -2548,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
@@ -2562,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>22</v>
       </c>
@@ -2576,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2590,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>38</v>
       </c>
@@ -2604,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2618,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>95</v>
       </c>
@@ -2632,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>31</v>
       </c>
@@ -2646,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>67</v>
       </c>
@@ -2660,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>25</v>
       </c>
@@ -2674,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18</v>
       </c>
@@ -2688,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90</v>
       </c>
@@ -2702,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -2716,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>83</v>
       </c>
@@ -2730,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>93</v>
       </c>
@@ -2744,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11</v>
       </c>
@@ -2758,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>90</v>
       </c>
@@ -2772,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>31</v>
       </c>
@@ -2786,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19</v>
       </c>
@@ -2800,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>93</v>
       </c>
@@ -2814,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>58</v>
       </c>
@@ -2828,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2842,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>55</v>
       </c>
@@ -2856,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17</v>
       </c>
@@ -2870,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>52</v>
       </c>
@@ -2884,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>68</v>
       </c>
@@ -2898,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2912,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2926,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>34</v>
       </c>
@@ -2940,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>41</v>
       </c>
@@ -2954,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>94</v>
       </c>
@@ -2968,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2982,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>95</v>
       </c>
@@ -2996,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>64</v>
       </c>
@@ -3010,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -3024,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18</v>
       </c>
@@ -3038,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>75</v>
       </c>
@@ -3052,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>31</v>
       </c>
@@ -3066,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>29</v>
       </c>
@@ -3080,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>83</v>
       </c>
@@ -3094,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>18</v>
       </c>
@@ -3108,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>26</v>
       </c>
@@ -3122,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -3136,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>39</v>
       </c>
@@ -3150,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23</v>
       </c>
@@ -3164,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>58</v>
       </c>
@@ -3184,16 +3242,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3205,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -3219,485 +3277,485 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29">
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>79</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -3709,133 +3767,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>31</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>28</v>
-      </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44">
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>53</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>57</v>
-      </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3843,477 +3901,477 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50">
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>8</v>
       </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>71</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56">
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>7</v>
       </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>9</v>
       </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>76</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
         <v>7</v>
       </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60">
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62">
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>10</v>
       </c>
-      <c r="D62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>37</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>10</v>
       </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>96</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
         <v>10</v>
       </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>59</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>56</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>27</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68">
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>44</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>38</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>7</v>
       </c>
-      <c r="D70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>36</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>9</v>
       </c>
-      <c r="D71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>9</v>
       </c>
-      <c r="D72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>23</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78">
         <v>7</v>
       </c>
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>65</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74">
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80">
         <v>5</v>
       </c>
-      <c r="D74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>95</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>62</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>81</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>69</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>49</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -4325,163 +4383,163 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
         <v>9</v>
       </c>
-      <c r="D82" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>55</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83">
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
         <v>8</v>
       </c>
-      <c r="D83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>78</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84">
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>93</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
         <v>9</v>
       </c>
-      <c r="D85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>52</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>42</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>46</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>73</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>43</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>41</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
       <c r="D92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -4493,99 +4551,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>5</v>
       </c>
-      <c r="D94" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>90</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>27</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>46</v>
-      </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>41</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>48</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>56</v>
-      </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
